--- a/RQ1/KG_tuples_for_intrinsic_quality_evaluation.xlsx
+++ b/RQ1/KG_tuples_for_intrinsic_quality_evaluation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Desktop/实验室/SE4AI/statistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36963A79-1B4A-1E47-8FE6-6DA46F6FD8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FD887F-AF50-A74B-A519-300612F93FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2229,10 +2229,10 @@
     <t>hasDocument</t>
   </si>
   <si>
-    <t>hasExample</t>
-  </si>
-  <si>
     <t>hasTrainedModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasExampleScript </t>
   </si>
 </sst>
 </file>
@@ -2636,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5413,7 +5413,7 @@
         <v>214</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>157</v>
@@ -5437,7 +5437,7 @@
         <v>215</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>157</v>
@@ -5461,7 +5461,7 @@
         <v>216</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>158</v>
@@ -5485,7 +5485,7 @@
         <v>217</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>157</v>
@@ -5509,7 +5509,7 @@
         <v>285</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>157</v>
@@ -5533,7 +5533,7 @@
         <v>286</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>157</v>
@@ -5557,7 +5557,7 @@
         <v>287</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>157</v>
@@ -5581,7 +5581,7 @@
         <v>288</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>157</v>
@@ -5605,7 +5605,7 @@
         <v>289</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>157</v>
@@ -5629,7 +5629,7 @@
         <v>290</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>157</v>
@@ -6613,7 +6613,7 @@
         <v>257</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>172</v>
@@ -6637,7 +6637,7 @@
         <v>237</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>173</v>
@@ -6661,7 +6661,7 @@
         <v>256</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>172</v>
@@ -6685,7 +6685,7 @@
         <v>238</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>173</v>
@@ -6709,7 +6709,7 @@
         <v>239</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>173</v>
@@ -6733,7 +6733,7 @@
         <v>240</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>173</v>
@@ -6757,7 +6757,7 @@
         <v>241</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>172</v>
@@ -6781,7 +6781,7 @@
         <v>255</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>171</v>
@@ -6805,7 +6805,7 @@
         <v>242</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>173</v>
@@ -6829,7 +6829,7 @@
         <v>243</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>173</v>
@@ -10361,7 +10361,7 @@
         <v>581</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>157</v>
@@ -10386,7 +10386,7 @@
         <v>582</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>583</v>
@@ -10411,7 +10411,7 @@
         <v>584</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>157</v>
@@ -10436,7 +10436,7 @@
         <v>585</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>157</v>
@@ -10461,7 +10461,7 @@
         <v>586</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -10484,7 +10484,7 @@
         <v>587</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>588</v>
@@ -10509,7 +10509,7 @@
         <v>589</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D314" s="4" t="s">
         <v>157</v>
@@ -10534,7 +10534,7 @@
         <v>590</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>157</v>
@@ -10559,7 +10559,7 @@
         <v>591</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>157</v>
@@ -10584,7 +10584,7 @@
         <v>592</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>157</v>
@@ -10609,7 +10609,7 @@
         <v>593</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>594</v>
@@ -10634,7 +10634,7 @@
         <v>595</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>157</v>
@@ -10659,7 +10659,7 @@
         <v>596</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>157</v>
@@ -11977,7 +11977,7 @@
         <v>657</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>173</v>
@@ -12002,7 +12002,7 @@
         <v>658</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>173</v>
@@ -12027,7 +12027,7 @@
         <v>659</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D375" s="4" t="s">
         <v>173</v>
@@ -12052,7 +12052,7 @@
         <v>660</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>171</v>
@@ -12077,7 +12077,7 @@
         <v>661</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D377" s="4" t="s">
         <v>172</v>
@@ -12102,7 +12102,7 @@
         <v>662</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>171</v>
@@ -12127,7 +12127,7 @@
         <v>663</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>173</v>
@@ -12152,7 +12152,7 @@
         <v>664</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>172</v>
@@ -12177,7 +12177,7 @@
         <v>665</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>173</v>
@@ -12202,7 +12202,7 @@
         <v>666</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>171</v>
@@ -12227,7 +12227,7 @@
         <v>667</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>171</v>
@@ -12252,7 +12252,7 @@
         <v>668</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>173</v>
@@ -12277,7 +12277,7 @@
         <v>669</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D385" s="4" t="s">
         <v>173</v>
